--- a/Excel/ScenarioChapter.xlsx
+++ b/Excel/ScenarioChapter.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kg881\Perforce\wk_program_4958\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kg881\OneDrive\Documents\GitHub\wk\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AAB2F48-A8A6-421B-A293-8DEA20471761}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9DC0C0C-7512-46DC-82CE-D63AE64C2F88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -490,7 +490,7 @@
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.4"/>
@@ -541,7 +541,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2" s="3">
-        <v>1000</v>
+        <v>10001</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>7</v>
@@ -573,7 +573,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A3" s="3">
-        <v>1000</v>
+        <v>10001</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>8</v>
